--- a/webScrapping/espn_scrapper/IPL/Mumbai Indians/Saurabh Tiwary.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Mumbai Indians/Saurabh Tiwary.xlsx
@@ -439,37 +439,37 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Sep 19 2020</v>
+        <v xml:space="preserve"> Nov 3 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C2" t="str">
-        <v>Super Kings won by 5 wickets (with 4 balls remaining)</v>
+        <v>Sunrisers won by 10 wickets (with 17 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F2" t="str">
         <v>Saurabh Tiwary</v>
       </c>
       <c r="G2" t="str">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="H2" t="str">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I2" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>135.48</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="3">
@@ -509,72 +509,72 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Nov 3 2020</v>
+        <v xml:space="preserve"> Sep 23 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C4" t="str">
-        <v>Sunrisers won by 10 wickets (with 17 balls remaining)</v>
+        <v>Mumbai won by 49 runs</v>
       </c>
       <c r="D4" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="F4" t="str">
         <v>Saurabh Tiwary</v>
       </c>
       <c r="G4" t="str">
+        <v>21</v>
+      </c>
+      <c r="H4" t="str">
+        <v>13</v>
+      </c>
+      <c r="I4" t="str">
         <v>1</v>
       </c>
-      <c r="H4" t="str">
-        <v>3</v>
-      </c>
-      <c r="I4" t="str">
-        <v>0</v>
-      </c>
       <c r="J4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
-        <v>33.33</v>
+        <v>161.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Sep 23 2020</v>
+        <v xml:space="preserve"> Sep 19 2020</v>
       </c>
       <c r="B5" t="str">
         <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C5" t="str">
-        <v>Mumbai won by 49 runs</v>
+        <v>Super Kings won by 5 wickets (with 4 balls remaining)</v>
       </c>
       <c r="D5" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E5" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F5" t="str">
         <v>Saurabh Tiwary</v>
       </c>
       <c r="G5" t="str">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H5" t="str">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I5" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="str">
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <v>161.53</v>
+        <v>135.48</v>
       </c>
     </row>
   </sheetData>
